--- a/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
+++ b/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F117C-26E2-46C9-B640-462924CE4627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
   <si>
     <t>PERIOD</t>
   </si>
@@ -463,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1338,7 +1337,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1380,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1444,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1504,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1570,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1633,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1731,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1790,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1855,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1898,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1973,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2159,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2225,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2349,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2405,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2480,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2523,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2589,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2645,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2743,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2806,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2855,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2873,25 +2872,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K386" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K386" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2903,13 +2902,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2918,14 +2917,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3229,7 +3228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3239,7 +3238,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3247,34 +3246,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4152" topLeftCell="A349" activePane="bottomLeft"/>
+      <pane ySplit="4155" topLeftCell="A349" activePane="bottomLeft"/>
       <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="B359" sqref="B359"/>
+      <selection pane="bottomLeft" activeCell="I361" sqref="I361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3295,7 +3294,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3341,7 +3340,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3354,7 +3353,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3371,7 +3370,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>23</v>
@@ -3415,7 +3414,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>219.06400000000002</v>
+        <v>221.56400000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3425,12 +3424,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>420.75</v>
+        <v>420</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="50" t="s">
         <v>43</v>
@@ -3452,7 +3451,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>44</v>
       </c>
@@ -3470,7 +3469,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>35796</v>
       </c>
@@ -3490,7 +3489,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>35827</v>
       </c>
@@ -3510,7 +3509,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>35855</v>
       </c>
@@ -3530,7 +3529,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>35886</v>
       </c>
@@ -3550,7 +3549,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>35916</v>
       </c>
@@ -3570,7 +3569,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>35947</v>
       </c>
@@ -3590,7 +3589,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>35977</v>
       </c>
@@ -3610,7 +3609,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>36008</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>36027</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>36039</v>
       </c>
@@ -3656,7 +3655,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>36069</v>
       </c>
@@ -3676,7 +3675,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>36100</v>
       </c>
@@ -3696,7 +3695,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>36130</v>
       </c>
@@ -3720,7 +3719,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>45</v>
       </c>
@@ -3738,7 +3737,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>36161</v>
       </c>
@@ -3762,7 +3761,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>36192</v>
       </c>
@@ -3782,7 +3781,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>36220</v>
       </c>
@@ -3802,7 +3801,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>36251</v>
       </c>
@@ -3822,7 +3821,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>36281</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>36312</v>
       </c>
@@ -3868,7 +3867,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>36342</v>
       </c>
@@ -3888,7 +3887,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>36373</v>
       </c>
@@ -3908,7 +3907,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>36404</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>36430</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>36434</v>
       </c>
@@ -3954,7 +3953,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>36465</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3998,7 +3997,7 @@
         <v>36469</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -4020,7 +4019,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>36495</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>55</v>
@@ -4066,7 +4065,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>46</v>
       </c>
@@ -4084,7 +4083,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>36526</v>
       </c>
@@ -4108,7 +4107,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>36557</v>
       </c>
@@ -4128,7 +4127,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>36586</v>
       </c>
@@ -4148,7 +4147,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>36617</v>
       </c>
@@ -4168,7 +4167,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>36647</v>
       </c>
@@ -4188,7 +4187,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>36678</v>
       </c>
@@ -4208,7 +4207,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>36708</v>
       </c>
@@ -4228,7 +4227,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>36739</v>
       </c>
@@ -4248,7 +4247,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>36770</v>
       </c>
@@ -4268,7 +4267,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>36800</v>
       </c>
@@ -4288,7 +4287,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>36831</v>
       </c>
@@ -4308,7 +4307,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>36861</v>
       </c>
@@ -4332,7 +4331,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>56</v>
       </c>
@@ -4350,7 +4349,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>36892</v>
       </c>
@@ -4370,7 +4369,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>36923</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>36951</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>36982</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20" t="s">
         <v>82</v>
@@ -4458,7 +4457,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>37012</v>
       </c>
@@ -4478,7 +4477,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>37043</v>
       </c>
@@ -4498,7 +4497,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>37073</v>
       </c>
@@ -4518,7 +4517,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>37104</v>
       </c>
@@ -4538,7 +4537,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>37135</v>
       </c>
@@ -4558,7 +4557,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>37165</v>
       </c>
@@ -4578,7 +4577,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>37196</v>
       </c>
@@ -4598,7 +4597,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>37226</v>
       </c>
@@ -4618,7 +4617,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>61</v>
       </c>
@@ -4636,7 +4635,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>37257</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20" t="s">
         <v>83</v>
@@ -4682,7 +4681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>37288</v>
       </c>
@@ -4702,7 +4701,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>37316</v>
       </c>
@@ -4722,7 +4721,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>37347</v>
       </c>
@@ -4742,7 +4741,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>37377</v>
       </c>
@@ -4762,7 +4761,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>37408</v>
       </c>
@@ -4782,7 +4781,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>37438</v>
       </c>
@@ -4802,7 +4801,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>37469</v>
       </c>
@@ -4822,7 +4821,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>37500</v>
       </c>
@@ -4842,7 +4841,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>37530</v>
       </c>
@@ -4862,7 +4861,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>37561</v>
       </c>
@@ -4882,7 +4881,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>37591</v>
       </c>
@@ -4902,7 +4901,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
         <v>60</v>
       </c>
@@ -4920,7 +4919,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>37622</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20" t="s">
         <v>84</v>
@@ -4966,7 +4965,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>37653</v>
       </c>
@@ -4986,7 +4985,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>37681</v>
       </c>
@@ -5006,7 +5005,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>37712</v>
       </c>
@@ -5026,7 +5025,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>37742</v>
       </c>
@@ -5046,7 +5045,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>37773</v>
       </c>
@@ -5066,7 +5065,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>37803</v>
       </c>
@@ -5086,7 +5085,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>37834</v>
       </c>
@@ -5106,7 +5105,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
         <v>37865</v>
       </c>
@@ -5126,7 +5125,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>37895</v>
       </c>
@@ -5146,7 +5145,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>37926</v>
       </c>
@@ -5166,7 +5165,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
         <v>37956</v>
       </c>
@@ -5190,7 +5189,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="53" t="s">
         <v>59</v>
       </c>
@@ -5208,7 +5207,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
         <v>37987</v>
       </c>
@@ -5228,7 +5227,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>38018</v>
       </c>
@@ -5248,7 +5247,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>38047</v>
       </c>
@@ -5268,7 +5267,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <v>38078</v>
       </c>
@@ -5288,7 +5287,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>38108</v>
       </c>
@@ -5308,7 +5307,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
         <v>38139</v>
       </c>
@@ -5328,7 +5327,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
         <v>38169</v>
       </c>
@@ -5348,7 +5347,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
         <v>38200</v>
       </c>
@@ -5368,7 +5367,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>38231</v>
       </c>
@@ -5388,7 +5387,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
         <v>38261</v>
       </c>
@@ -5408,7 +5407,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
         <v>38292</v>
       </c>
@@ -5428,7 +5427,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>38322</v>
       </c>
@@ -5452,7 +5451,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
         <v>58</v>
       </c>
@@ -5470,7 +5469,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>38353</v>
       </c>
@@ -5490,7 +5489,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>38384</v>
       </c>
@@ -5510,7 +5509,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <v>38412</v>
       </c>
@@ -5530,7 +5529,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
         <v>38443</v>
       </c>
@@ -5550,7 +5549,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>38473</v>
       </c>
@@ -5570,7 +5569,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
         <v>38504</v>
       </c>
@@ -5590,7 +5589,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>38534</v>
       </c>
@@ -5610,7 +5609,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>38565</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
         <v>38596</v>
       </c>
@@ -5650,7 +5649,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>38626</v>
       </c>
@@ -5670,7 +5669,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>38657</v>
       </c>
@@ -5690,7 +5689,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>38687</v>
       </c>
@@ -5714,7 +5713,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="53" t="s">
         <v>57</v>
       </c>
@@ -5732,7 +5731,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
         <v>38718</v>
       </c>
@@ -5752,7 +5751,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
         <v>38749</v>
       </c>
@@ -5772,7 +5771,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
         <v>38777</v>
       </c>
@@ -5792,7 +5791,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>38808</v>
       </c>
@@ -5812,7 +5811,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>38838</v>
       </c>
@@ -5832,7 +5831,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>38869</v>
       </c>
@@ -5852,7 +5851,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>38899</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>38930</v>
       </c>
@@ -5896,7 +5895,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
         <v>38961</v>
       </c>
@@ -5916,7 +5915,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>38991</v>
       </c>
@@ -5936,7 +5935,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
         <v>39022</v>
       </c>
@@ -5956,7 +5955,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
         <v>39052</v>
       </c>
@@ -5980,7 +5979,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="53" t="s">
         <v>62</v>
       </c>
@@ -5998,7 +5997,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38">
         <v>39083</v>
       </c>
@@ -6018,7 +6017,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <v>39114</v>
       </c>
@@ -6042,7 +6041,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>39142</v>
       </c>
@@ -6066,7 +6065,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
         <v>39173</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>39203</v>
       </c>
@@ -6114,7 +6113,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <v>39234</v>
       </c>
@@ -6138,7 +6137,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>39264</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>39295</v>
       </c>
@@ -6182,7 +6181,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>39326</v>
       </c>
@@ -6202,7 +6201,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
         <v>39356</v>
       </c>
@@ -6222,7 +6221,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
         <v>39387</v>
       </c>
@@ -6242,7 +6241,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
         <v>39417</v>
       </c>
@@ -6266,7 +6265,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="53" t="s">
         <v>63</v>
       </c>
@@ -6284,7 +6283,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <v>39448</v>
       </c>
@@ -6304,7 +6303,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
         <v>39479</v>
       </c>
@@ -6324,7 +6323,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>39508</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
         <v>39539</v>
       </c>
@@ -6368,7 +6367,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
         <v>39569</v>
       </c>
@@ -6388,7 +6387,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>39600</v>
       </c>
@@ -6408,7 +6407,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
         <v>39630</v>
       </c>
@@ -6428,7 +6427,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
         <v>39661</v>
       </c>
@@ -6448,7 +6447,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>39692</v>
       </c>
@@ -6468,7 +6467,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
         <v>39722</v>
       </c>
@@ -6488,7 +6487,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <v>39753</v>
       </c>
@@ -6508,7 +6507,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
         <v>39783</v>
       </c>
@@ -6532,7 +6531,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="53" t="s">
         <v>64</v>
       </c>
@@ -6550,7 +6549,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>39814</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>39842</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <v>39845</v>
       </c>
@@ -6596,7 +6595,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>39873</v>
       </c>
@@ -6616,7 +6615,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>39904</v>
       </c>
@@ -6636,7 +6635,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>39934</v>
       </c>
@@ -6656,7 +6655,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
         <v>39965</v>
       </c>
@@ -6676,7 +6675,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>39995</v>
       </c>
@@ -6696,7 +6695,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
         <v>40026</v>
       </c>
@@ -6716,7 +6715,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <v>40057</v>
       </c>
@@ -6736,7 +6735,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>40087</v>
       </c>
@@ -6756,7 +6755,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>40118</v>
       </c>
@@ -6776,7 +6775,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <v>40148</v>
       </c>
@@ -6800,7 +6799,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="53" t="s">
         <v>65</v>
       </c>
@@ -6818,7 +6817,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>40179</v>
       </c>
@@ -6838,7 +6837,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>40210</v>
       </c>
@@ -6858,7 +6857,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
         <v>40238</v>
       </c>
@@ -6878,7 +6877,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
         <v>40269</v>
       </c>
@@ -6898,7 +6897,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38">
         <v>40299</v>
       </c>
@@ -6918,7 +6917,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>40330</v>
       </c>
@@ -6938,7 +6937,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <v>40360</v>
       </c>
@@ -6958,7 +6957,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38">
         <v>40391</v>
       </c>
@@ -6978,7 +6977,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38">
         <v>40422</v>
       </c>
@@ -6998,7 +6997,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>40452</v>
       </c>
@@ -7018,7 +7017,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38">
         <v>40483</v>
       </c>
@@ -7038,7 +7037,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38">
         <v>40513</v>
       </c>
@@ -7062,7 +7061,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="53" t="s">
         <v>66</v>
       </c>
@@ -7080,7 +7079,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38">
         <v>40544</v>
       </c>
@@ -7100,7 +7099,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38">
         <v>40575</v>
       </c>
@@ -7120,7 +7119,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>40603</v>
       </c>
@@ -7140,7 +7139,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38">
         <v>40634</v>
       </c>
@@ -7160,7 +7159,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38">
         <v>40664</v>
       </c>
@@ -7180,7 +7179,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>40695</v>
       </c>
@@ -7200,7 +7199,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38">
         <v>40725</v>
       </c>
@@ -7220,7 +7219,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <v>40756</v>
       </c>
@@ -7240,7 +7239,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38">
         <v>40787</v>
       </c>
@@ -7260,7 +7259,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>40817</v>
       </c>
@@ -7280,7 +7279,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <v>40848</v>
       </c>
@@ -7300,7 +7299,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38">
         <v>40878</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="53" t="s">
         <v>67</v>
       </c>
@@ -7344,7 +7343,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38">
         <v>40909</v>
       </c>
@@ -7364,7 +7363,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38">
         <v>40940</v>
       </c>
@@ -7384,7 +7383,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>40969</v>
       </c>
@@ -7404,7 +7403,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <v>41000</v>
       </c>
@@ -7430,7 +7429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38">
         <v>41030</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>107</v>
@@ -7478,7 +7477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38">
         <v>41061</v>
       </c>
@@ -7498,7 +7497,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38">
         <v>41091</v>
       </c>
@@ -7518,7 +7517,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38">
         <v>41122</v>
       </c>
@@ -7538,7 +7537,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>41153</v>
       </c>
@@ -7558,7 +7557,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38">
         <v>41183</v>
       </c>
@@ -7578,7 +7577,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38">
         <v>41214</v>
       </c>
@@ -7598,7 +7597,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>41244</v>
       </c>
@@ -7618,7 +7617,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="53" t="s">
         <v>68</v>
       </c>
@@ -7636,7 +7635,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>41275</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38">
         <v>41306</v>
       </c>
@@ -7682,7 +7681,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38">
         <v>41334</v>
       </c>
@@ -7702,7 +7701,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>41365</v>
       </c>
@@ -7722,7 +7721,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>41395</v>
       </c>
@@ -7742,7 +7741,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>41426</v>
       </c>
@@ -7762,7 +7761,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38">
         <v>41456</v>
       </c>
@@ -7782,7 +7781,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="38">
         <v>41487</v>
       </c>
@@ -7802,7 +7801,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38">
         <v>41518</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38"/>
       <c r="B223" s="20" t="s">
         <v>48</v>
@@ -7850,7 +7849,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38">
         <v>41548</v>
       </c>
@@ -7870,7 +7869,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38">
         <v>41579</v>
       </c>
@@ -7890,7 +7889,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38">
         <v>41609</v>
       </c>
@@ -7910,7 +7909,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="53" t="s">
         <v>69</v>
       </c>
@@ -7928,7 +7927,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38">
         <v>41640</v>
       </c>
@@ -7948,7 +7947,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38">
         <v>41671</v>
       </c>
@@ -7968,7 +7967,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38">
         <v>41699</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <v>41730</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38">
         <v>41760</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38">
         <v>41791</v>
       </c>
@@ -8066,7 +8065,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38">
         <v>41821</v>
       </c>
@@ -8092,7 +8091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38"/>
       <c r="B235" s="20" t="s">
         <v>115</v>
@@ -8114,7 +8113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38"/>
       <c r="B236" s="20" t="s">
         <v>115</v>
@@ -8136,7 +8135,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38">
         <v>41852</v>
       </c>
@@ -8156,7 +8155,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <v>41883</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38">
         <v>41913</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38">
         <v>41944</v>
       </c>
@@ -8226,7 +8225,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38">
         <v>41974</v>
       </c>
@@ -8246,7 +8245,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="53" t="s">
         <v>70</v>
       </c>
@@ -8264,7 +8263,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38">
         <v>42005</v>
       </c>
@@ -8284,7 +8283,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <v>42036</v>
       </c>
@@ -8304,7 +8303,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38">
         <v>42064</v>
       </c>
@@ -8324,7 +8323,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38">
         <v>42095</v>
       </c>
@@ -8344,7 +8343,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <v>42125</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38">
         <v>42156</v>
       </c>
@@ -8390,7 +8389,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38">
         <v>42186</v>
       </c>
@@ -8410,7 +8409,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <v>42217</v>
       </c>
@@ -8430,7 +8429,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38">
         <v>42248</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>42268</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38">
         <v>42278</v>
       </c>
@@ -8476,7 +8475,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38">
         <v>42309</v>
       </c>
@@ -8496,7 +8495,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38">
         <v>42339</v>
       </c>
@@ -8520,7 +8519,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="53" t="s">
         <v>71</v>
       </c>
@@ -8538,7 +8537,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>42370</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38">
         <v>42401</v>
       </c>
@@ -8582,7 +8581,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38">
         <v>42430</v>
       </c>
@@ -8602,7 +8601,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="38">
         <v>42461</v>
       </c>
@@ -8622,7 +8621,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <v>42491</v>
       </c>
@@ -8642,7 +8641,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38">
         <v>42522</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38">
         <v>42552</v>
       </c>
@@ -8688,7 +8687,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38">
         <v>42583</v>
       </c>
@@ -8708,7 +8707,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38">
         <v>42614</v>
       </c>
@@ -8728,7 +8727,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <v>42644</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <v>42675</v>
       </c>
@@ -8772,7 +8771,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38">
         <v>42705</v>
       </c>
@@ -8792,7 +8791,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="53" t="s">
         <v>72</v>
       </c>
@@ -8810,7 +8809,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <v>42736</v>
       </c>
@@ -8830,7 +8829,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38">
         <v>42767</v>
       </c>
@@ -8850,7 +8849,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>42795</v>
       </c>
@@ -8870,7 +8869,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38">
         <v>42826</v>
       </c>
@@ -8890,7 +8889,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="38">
         <v>42856</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="38">
         <v>42887</v>
       </c>
@@ -8936,7 +8935,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <v>42917</v>
       </c>
@@ -8956,7 +8955,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38">
         <v>42948</v>
       </c>
@@ -8976,7 +8975,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <v>42979</v>
       </c>
@@ -8996,7 +8995,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38">
         <v>43009</v>
       </c>
@@ -9016,7 +9015,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38">
         <v>43040</v>
       </c>
@@ -9036,7 +9035,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <v>43070</v>
       </c>
@@ -9060,7 +9059,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="53" t="s">
         <v>73</v>
       </c>
@@ -9078,7 +9077,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38">
         <v>43101</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>43132</v>
       </c>
@@ -9124,7 +9123,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38">
         <v>43160</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38"/>
       <c r="B285" s="20" t="s">
         <v>84</v>
@@ -9170,7 +9169,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38">
         <v>43191</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <v>43221</v>
       </c>
@@ -9212,7 +9211,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38">
         <v>43252</v>
       </c>
@@ -9232,7 +9231,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>43282</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38">
         <v>43313</v>
       </c>
@@ -9282,7 +9281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>43344</v>
       </c>
@@ -9302,7 +9301,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>43374</v>
       </c>
@@ -9322,7 +9321,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38">
         <v>43405</v>
       </c>
@@ -9346,7 +9345,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="38">
         <v>43435</v>
       </c>
@@ -9366,7 +9365,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
         <v>74</v>
       </c>
@@ -9384,7 +9383,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38">
         <v>43466</v>
       </c>
@@ -9404,7 +9403,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38">
         <v>43497</v>
       </c>
@@ -9424,7 +9423,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>43525</v>
       </c>
@@ -9444,7 +9443,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38">
         <v>43556</v>
       </c>
@@ -9464,7 +9463,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38">
         <v>43586</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38">
         <v>43617</v>
       </c>
@@ -9510,7 +9509,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <v>43647</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>43678</v>
       </c>
@@ -9556,7 +9555,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>43709</v>
       </c>
@@ -9576,7 +9575,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38">
         <v>43739</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38"/>
       <c r="B306" s="20" t="s">
         <v>52</v>
@@ -9624,7 +9623,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38">
         <v>43770</v>
       </c>
@@ -9644,7 +9643,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38">
         <v>43800</v>
       </c>
@@ -9668,7 +9667,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="53" t="s">
         <v>75</v>
       </c>
@@ -9686,7 +9685,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38">
         <v>43831</v>
       </c>
@@ -9712,7 +9711,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38">
         <v>43862</v>
       </c>
@@ -9732,7 +9731,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38">
         <v>43891</v>
       </c>
@@ -9752,7 +9751,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38">
         <v>43922</v>
       </c>
@@ -9772,7 +9771,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <v>43952</v>
       </c>
@@ -9792,7 +9791,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38">
         <v>43983</v>
       </c>
@@ -9812,7 +9811,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>44013</v>
       </c>
@@ -9832,7 +9831,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>44044</v>
       </c>
@@ -9852,7 +9851,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38">
         <v>44075</v>
       </c>
@@ -9872,7 +9871,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38">
         <v>44105</v>
       </c>
@@ -9892,7 +9891,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>44136</v>
       </c>
@@ -9912,7 +9911,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <v>44166</v>
       </c>
@@ -9936,7 +9935,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="53" t="s">
         <v>76</v>
       </c>
@@ -9954,7 +9953,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38">
         <v>44197</v>
       </c>
@@ -9974,7 +9973,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38">
         <v>44228</v>
       </c>
@@ -9994,7 +9993,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <v>44256</v>
       </c>
@@ -10014,7 +10013,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38">
         <v>44287</v>
       </c>
@@ -10034,7 +10033,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38">
         <v>44317</v>
       </c>
@@ -10054,7 +10053,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38">
         <v>44348</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38"/>
       <c r="B329" s="20" t="s">
         <v>115</v>
@@ -10100,7 +10099,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <v>44378</v>
       </c>
@@ -10120,7 +10119,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38">
         <v>44409</v>
       </c>
@@ -10140,7 +10139,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <v>44440</v>
       </c>
@@ -10160,7 +10159,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38">
         <v>44470</v>
       </c>
@@ -10180,7 +10179,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38">
         <v>44501</v>
       </c>
@@ -10200,7 +10199,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38">
         <v>44531</v>
       </c>
@@ -10220,7 +10219,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="53" t="s">
         <v>77</v>
       </c>
@@ -10238,7 +10237,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38">
         <v>44562</v>
       </c>
@@ -10258,7 +10257,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <v>44593</v>
       </c>
@@ -10278,7 +10277,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38">
         <v>44621</v>
       </c>
@@ -10298,7 +10297,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38">
         <v>44652</v>
       </c>
@@ -10318,7 +10317,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <v>44682</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38">
         <v>44713</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <v>44743</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>47</v>
@@ -10416,7 +10415,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38">
         <v>44774</v>
       </c>
@@ -10442,7 +10441,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <v>44805</v>
       </c>
@@ -10462,7 +10461,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38">
         <v>44835</v>
       </c>
@@ -10488,7 +10487,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <v>44866</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="38">
         <v>44896</v>
       </c>
@@ -10540,7 +10539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38"/>
       <c r="B350" s="20" t="s">
         <v>102</v>
@@ -10560,7 +10559,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="53" t="s">
         <v>137</v>
       </c>
@@ -10578,7 +10577,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38">
         <v>44927</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38">
         <v>44958</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <v>44986</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38">
         <v>45017</v>
       </c>
@@ -10676,7 +10675,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38">
         <v>45047</v>
       </c>
@@ -10696,7 +10695,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="38">
         <v>45078</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -10744,55 +10743,71 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>45108</v>
       </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="37"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="37"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <v>45139</v>
       </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
+      <c r="B360" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D360" s="37"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
       <c r="G360" s="13"/>
-      <c r="H360" s="37"/>
+      <c r="H360" s="37">
+        <v>1</v>
+      </c>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K360" s="54">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38">
         <v>45170</v>
       </c>
-      <c r="B361" s="20"/>
+      <c r="B361" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C361" s="13"/>
       <c r="D361" s="37"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
       <c r="G361" s="13"/>
-      <c r="H361" s="37"/>
+      <c r="H361" s="37">
+        <v>1</v>
+      </c>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K361" s="54">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38">
         <v>45200</v>
       </c>
@@ -10807,7 +10822,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38">
         <v>45231</v>
       </c>
@@ -10822,7 +10837,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
         <v>45261</v>
       </c>
@@ -10837,7 +10852,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38">
         <v>45292</v>
       </c>
@@ -10852,7 +10867,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38">
         <v>45323</v>
       </c>
@@ -10867,7 +10882,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38">
         <v>45352</v>
       </c>
@@ -10882,7 +10897,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10895,7 +10910,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10908,7 +10923,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10921,7 +10936,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="38"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10934,7 +10949,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="38"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10950,7 +10965,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="38"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10966,7 +10981,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="38"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10982,7 +10997,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="38"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10998,7 +11013,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="38"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11014,7 +11029,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="38"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11030,7 +11045,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11046,7 +11061,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11062,7 +11077,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11078,7 +11093,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11094,7 +11109,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11110,7 +11125,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11126,7 +11141,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11142,7 +11157,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11158,7 +11173,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11189,10 +11204,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11215,7 +11230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11223,21 +11238,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -11250,7 +11265,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -11279,7 +11294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>51.18</v>
       </c>
@@ -11309,17 +11324,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -11340,7 +11355,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -11367,7 +11382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -11393,7 +11408,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -11419,7 +11434,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -11445,7 +11460,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -11471,7 +11486,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -11497,7 +11512,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -11523,7 +11538,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -11549,7 +11564,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -11569,7 +11584,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -11589,7 +11604,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -11609,7 +11624,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -11630,7 +11645,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -11651,7 +11666,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -11672,7 +11687,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -11693,7 +11708,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -11714,7 +11729,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -11735,7 +11750,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -11756,7 +11771,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -11777,7 +11792,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -11798,7 +11813,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -11819,7 +11834,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -11840,7 +11855,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -11861,7 +11876,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -11882,7 +11897,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -11903,7 +11918,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -11924,7 +11939,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -11945,7 +11960,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -11966,7 +11981,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -11987,7 +12002,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -12008,7 +12023,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -12029,7 +12044,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -12038,7 +12053,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -12047,7 +12062,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -12056,7 +12071,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -12065,7 +12080,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -12074,7 +12089,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -12083,7 +12098,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -12092,7 +12107,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -12101,7 +12116,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -12110,7 +12125,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -12119,7 +12134,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -12128,7 +12143,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -12137,7 +12152,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -12146,7 +12161,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -12155,7 +12170,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -12164,7 +12179,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -12173,7 +12188,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -12182,7 +12197,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -12191,7 +12206,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -12200,7 +12215,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -12209,7 +12224,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -12218,7 +12233,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -12227,7 +12242,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -12236,7 +12251,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -12245,7 +12260,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -12254,7 +12269,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -12263,7 +12278,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -12272,7 +12287,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -12281,7 +12296,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -12290,7 +12305,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
+++ b/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -463,18 +463,6 @@
   </si>
   <si>
     <t>12/27,28/2023</t>
-  </si>
-  <si>
-    <t>2024/27,28/202024</t>
-  </si>
-  <si>
-    <t>01/27,28/2024</t>
-  </si>
-  <si>
-    <t>02/27,28/2024</t>
-  </si>
-  <si>
-    <t>03/27,28/2024</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1343,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1386,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1450,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1510,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1576,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1639,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1737,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1796,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1861,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1904,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1979,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2165,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2231,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2289,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2355,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2411,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2486,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2529,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2595,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2651,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2749,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2812,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2878,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K389" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K390" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3268,12 +3256,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K389"/>
+  <dimension ref="A2:K390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A346" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="K366" sqref="K366"/>
+      <selection pane="bottomLeft" activeCell="K367" sqref="K367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3420,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>225.31400000000002</v>
+        <v>226.56400000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3442,7 +3430,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>417</v>
+        <v>422.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10794,7 +10782,10 @@
       <c r="D360" s="37"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13"/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H360" s="37">
         <v>1</v>
       </c>
@@ -10817,7 +10808,10 @@
       <c r="D361" s="37"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13"/>
+      <c r="G361" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H361" s="37">
         <v>1</v>
       </c>
@@ -10840,7 +10834,10 @@
       <c r="D362" s="37"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13"/>
+      <c r="G362" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H362" s="37">
         <v>1</v>
       </c>
@@ -10883,7 +10880,9 @@
       <c r="D364" s="37"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13"/>
+      <c r="G364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="H364" s="37">
         <v>1</v>
       </c>
@@ -10922,11 +10921,15 @@
       <c r="B366" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C366" s="13"/>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D366" s="37"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13"/>
+      <c r="G366" s="13">
+        <v>1.25</v>
+      </c>
       <c r="H366" s="37"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
@@ -10935,10 +10938,10 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B367" s="20"/>
+      <c r="A367" s="38"/>
+      <c r="B367" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C367" s="13"/>
       <c r="D367" s="37"/>
       <c r="E367" s="9"/>
@@ -10947,21 +10950,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H367" s="37"/>
+      <c r="H367" s="37">
+        <v>1</v>
+      </c>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
+      <c r="K367" s="54">
+        <v>45289</v>
+      </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="38">
-        <v>45292</v>
+      <c r="A368" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
       <c r="D368" s="37"/>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H368" s="37"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
@@ -10969,7 +10979,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10984,7 +10994,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10998,7 +11008,9 @@
       <c r="K370" s="20"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="38"/>
+      <c r="A371" s="38">
+        <v>45352</v>
+      </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
       <c r="D371" s="37"/>
@@ -11056,10 +11068,7 @@
       <c r="D375" s="37"/>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G375" s="13"/>
       <c r="H375" s="37"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
@@ -11288,6 +11297,22 @@
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="38"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="37"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H390" s="37"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
+++ b/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1386,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1450,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1576,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1639,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1737,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1796,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1904,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1979,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2165,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2289,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2355,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2411,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2486,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2529,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2595,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2651,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,7 +2749,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2812,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,9 +3259,9 @@
   <dimension ref="A2:K390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A346" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A355" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="K367" sqref="K367"/>
+      <selection pane="bottomLeft" activeCell="K369" sqref="K369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,7 +3430,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>422.25</v>
+        <v>421.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10981,16 +10981,22 @@
       <c r="A369" s="38">
         <v>45292</v>
       </c>
-      <c r="B369" s="20"/>
+      <c r="B369" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C369" s="13"/>
       <c r="D369" s="37"/>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
       <c r="G369" s="13"/>
-      <c r="H369" s="37"/>
+      <c r="H369" s="37">
+        <v>1</v>
+      </c>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
+      <c r="K369" s="54">
+        <v>45303</v>
+      </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38">
